--- a/data/industry/CFM/uMCP.xlsx
+++ b/data/industry/CFM/uMCP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C419CDEC-2FFE-4DEA-A368-5E73CA863CDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6347CC9-B0F8-4797-B362-0FAD485840E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="666" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uMCP(LPDDR4X + UFS2.2)4GB+128GB" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="9">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -61,15 +61,21 @@
     <t>UTC+8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>UTC+8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -124,43 +130,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,10 +458,679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="11.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>45860</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45860</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12">
+        <v>14.6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="G2" s="12">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>45867</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45867</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F3" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="G3" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>45874</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45874</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F4" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="G4" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>45881</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45881</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F5" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="G5" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>45888</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45888</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F6" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="G6" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>45895</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45895</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F7" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="G7" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>45902</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45902</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F8" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="G8" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>45909</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45909</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F9" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="G9" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>45916</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45916</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F10" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="G10" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>45923</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45923</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F11" s="12">
+        <v>21.7</v>
+      </c>
+      <c r="G11" s="12">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>45930</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45930</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F12" s="12">
+        <v>21.7</v>
+      </c>
+      <c r="G12" s="12">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>45944</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45944</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12">
+        <v>22.1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>25.2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>45951</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45951</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12">
+        <v>22.1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>25.2</v>
+      </c>
+      <c r="G14" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>45958</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45958</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12">
+        <v>22.1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>25.2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>45965</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45965</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="12">
+        <v>28.1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>31.2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>45972</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45972</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12">
+        <v>31.1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G17" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>45979</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45979</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12">
+        <v>37.1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G18" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>45986</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45986</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12">
+        <v>45.1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>48.2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>45993</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45993</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12">
+        <v>52.1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>55.2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>46000</v>
+      </c>
+      <c r="B21" s="6">
+        <v>46000</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="12">
+        <v>56.1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>59.2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>46007</v>
+      </c>
+      <c r="B22" s="6">
+        <v>46007</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="12">
+        <v>56.1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>59.2</v>
+      </c>
+      <c r="G22" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>46014</v>
+      </c>
+      <c r="B23" s="6">
+        <v>46014</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="12">
+        <v>59.1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>62.2</v>
+      </c>
+      <c r="G23" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>46021</v>
+      </c>
+      <c r="B24" s="6">
+        <v>46021</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="12">
+        <v>59.1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>62.2</v>
+      </c>
+      <c r="G24" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>46028</v>
+      </c>
+      <c r="B25" s="6">
+        <v>46028</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="12">
+        <v>59.1</v>
+      </c>
+      <c r="F25" s="12">
+        <v>62.2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>46035</v>
+      </c>
+      <c r="B26" s="10">
+        <v>46035</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="12">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F26" s="12">
+        <v>67.2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>46042</v>
+      </c>
+      <c r="B27" s="10">
+        <v>46042</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="12">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="F27" s="12">
+        <v>71.2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="6">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="12">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F28" s="12">
+        <v>73.2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBFB96D-E0DC-4AFD-BE63-80A1B57B983E}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -493,13 +1181,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="9">
-        <v>14.6</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="9">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="G2" s="9">
-        <v>16.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -516,13 +1204,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>17.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="F3" s="9">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="G3" s="9">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -539,13 +1227,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="9">
-        <v>17.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="F4" s="9">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="G4" s="9">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -562,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="9">
-        <v>17.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="F5" s="9">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -585,13 +1273,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="9">
-        <v>17.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="F6" s="9">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -608,13 +1296,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="9">
-        <v>17.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="F7" s="9">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="G7" s="9">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,13 +1319,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="9">
-        <v>17.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="F8" s="9">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="G8" s="9">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -654,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="9">
-        <v>17.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="F9" s="9">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="G9" s="9">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -677,13 +1365,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="9">
-        <v>17.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="F10" s="9">
-        <v>20.7</v>
+        <v>26</v>
       </c>
       <c r="G10" s="9">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -700,13 +1388,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="9">
-        <v>18.600000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="F11" s="9">
-        <v>21.7</v>
+        <v>27.3</v>
       </c>
       <c r="G11" s="9">
-        <v>20.5</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -723,13 +1411,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="9">
-        <v>18.600000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="F12" s="9">
-        <v>21.7</v>
+        <v>27.3</v>
       </c>
       <c r="G12" s="9">
-        <v>20.5</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -746,13 +1434,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="9">
-        <v>22.1</v>
+        <v>27.5</v>
       </c>
       <c r="F13" s="9">
-        <v>25.2</v>
+        <v>31</v>
       </c>
       <c r="G13" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -769,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="E14" s="9">
-        <v>22.1</v>
+        <v>27.5</v>
       </c>
       <c r="F14" s="9">
-        <v>25.2</v>
+        <v>31</v>
       </c>
       <c r="G14" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -792,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="9">
-        <v>22.1</v>
+        <v>27.5</v>
       </c>
       <c r="F15" s="9">
-        <v>25.2</v>
+        <v>31</v>
       </c>
       <c r="G15" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -815,13 +1503,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="9">
-        <v>28.1</v>
+        <v>34.5</v>
       </c>
       <c r="F16" s="9">
-        <v>31.2</v>
+        <v>38</v>
       </c>
       <c r="G16" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -838,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="E17" s="9">
-        <v>31.1</v>
+        <v>38.5</v>
       </c>
       <c r="F17" s="9">
-        <v>34.200000000000003</v>
+        <v>42</v>
       </c>
       <c r="G17" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -861,13 +1549,13 @@
         <v>7</v>
       </c>
       <c r="E18" s="9">
-        <v>37.1</v>
+        <v>46.5</v>
       </c>
       <c r="F18" s="9">
-        <v>40.200000000000003</v>
+        <v>50</v>
       </c>
       <c r="G18" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -884,13 +1572,13 @@
         <v>7</v>
       </c>
       <c r="E19" s="9">
-        <v>45.1</v>
+        <v>54.5</v>
       </c>
       <c r="F19" s="9">
-        <v>48.2</v>
+        <v>58</v>
       </c>
       <c r="G19" s="9">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -907,13 +1595,13 @@
         <v>7</v>
       </c>
       <c r="E20" s="9">
-        <v>52.1</v>
+        <v>58.5</v>
       </c>
       <c r="F20" s="9">
-        <v>55.2</v>
+        <v>62</v>
       </c>
       <c r="G20" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -930,13 +1618,13 @@
         <v>7</v>
       </c>
       <c r="E21" s="9">
-        <v>56.1</v>
+        <v>63.5</v>
       </c>
       <c r="F21" s="9">
-        <v>59.2</v>
+        <v>67</v>
       </c>
       <c r="G21" s="9">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -953,13 +1641,13 @@
         <v>7</v>
       </c>
       <c r="E22" s="9">
-        <v>56.1</v>
+        <v>63.5</v>
       </c>
       <c r="F22" s="9">
-        <v>59.2</v>
+        <v>67</v>
       </c>
       <c r="G22" s="9">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -976,13 +1664,13 @@
         <v>7</v>
       </c>
       <c r="E23" s="9">
-        <v>59.1</v>
+        <v>66.5</v>
       </c>
       <c r="F23" s="9">
-        <v>62.2</v>
+        <v>70</v>
       </c>
       <c r="G23" s="9">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -999,13 +1687,13 @@
         <v>7</v>
       </c>
       <c r="E24" s="9">
-        <v>59.1</v>
+        <v>66.5</v>
       </c>
       <c r="F24" s="9">
-        <v>62.2</v>
+        <v>70</v>
       </c>
       <c r="G24" s="9">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,13 +1710,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="9">
-        <v>59.1</v>
+        <v>66.5</v>
       </c>
       <c r="F25" s="9">
-        <v>62.2</v>
+        <v>70</v>
       </c>
       <c r="G25" s="9">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1045,13 +1733,13 @@
         <v>7</v>
       </c>
       <c r="E26" s="9">
-        <v>64.099999999999994</v>
+        <v>79.5</v>
       </c>
       <c r="F26" s="9">
-        <v>67.2</v>
+        <v>83</v>
       </c>
       <c r="G26" s="9">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1068,13 +1756,36 @@
         <v>7</v>
       </c>
       <c r="E27" s="9">
-        <v>68.099999999999994</v>
+        <v>83.5</v>
       </c>
       <c r="F27" s="9">
-        <v>71.2</v>
+        <v>87</v>
       </c>
       <c r="G27" s="9">
-        <v>70</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="6">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="9">
+        <v>85.5</v>
+      </c>
+      <c r="F28" s="9">
+        <v>89</v>
+      </c>
+      <c r="G28" s="9">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1083,12 +1794,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBFB96D-E0DC-4AFD-BE63-80A1B57B983E}">
-  <dimension ref="A1:G27"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C4456A-BBDC-4FAF-8248-C787C433008C}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1097,8 +1808,8 @@
     <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="11.25" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1115,13 +1826,13 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1138,14 +1849,14 @@
       <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9">
-        <v>18.5</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="14">
         <v>22</v>
       </c>
-      <c r="G2" s="9">
-        <v>21</v>
+      <c r="F2" s="14">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1161,14 +1872,14 @@
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="14">
         <v>26</v>
       </c>
-      <c r="G3" s="9">
-        <v>25</v>
+      <c r="F3" s="14">
+        <v>32</v>
+      </c>
+      <c r="G3" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1184,14 +1895,14 @@
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="14">
         <v>26</v>
       </c>
-      <c r="G4" s="9">
-        <v>25</v>
+      <c r="F4" s="14">
+        <v>32</v>
+      </c>
+      <c r="G4" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1207,14 +1918,14 @@
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="14">
         <v>26</v>
       </c>
-      <c r="G5" s="9">
-        <v>25</v>
+      <c r="F5" s="14">
+        <v>32</v>
+      </c>
+      <c r="G5" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1230,14 +1941,14 @@
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="14">
         <v>26</v>
       </c>
-      <c r="G6" s="9">
-        <v>25</v>
+      <c r="F6" s="14">
+        <v>32</v>
+      </c>
+      <c r="G6" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1253,14 +1964,14 @@
       <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="14">
         <v>26</v>
       </c>
-      <c r="G7" s="9">
-        <v>25</v>
+      <c r="F7" s="14">
+        <v>32</v>
+      </c>
+      <c r="G7" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1276,14 +1987,14 @@
       <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="14">
         <v>26</v>
       </c>
-      <c r="G8" s="9">
-        <v>25</v>
+      <c r="F8" s="14">
+        <v>32</v>
+      </c>
+      <c r="G8" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1299,14 +2010,14 @@
       <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="14">
         <v>26</v>
       </c>
-      <c r="G9" s="9">
-        <v>25</v>
+      <c r="F9" s="14">
+        <v>32</v>
+      </c>
+      <c r="G9" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1322,14 +2033,14 @@
       <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="14">
         <v>26</v>
       </c>
-      <c r="G10" s="9">
-        <v>25</v>
+      <c r="F10" s="14">
+        <v>32</v>
+      </c>
+      <c r="G10" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1345,14 +2056,14 @@
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9">
-        <v>23.8</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="14">
         <v>27.3</v>
       </c>
-      <c r="G11" s="9">
-        <v>26.3</v>
+      <c r="F11" s="14">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G11" s="14">
+        <v>30.3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,14 +2079,14 @@
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="9">
-        <v>23.8</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="14">
         <v>27.3</v>
       </c>
-      <c r="G12" s="9">
-        <v>26.3</v>
+      <c r="F12" s="14">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G12" s="14">
+        <v>30.3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1391,14 +2102,14 @@
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="9">
-        <v>27.5</v>
-      </c>
-      <c r="F13" s="9">
-        <v>31</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E13" s="14">
         <v>30</v>
+      </c>
+      <c r="F13" s="14">
+        <v>36</v>
+      </c>
+      <c r="G13" s="14">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1414,14 +2125,14 @@
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="9">
-        <v>27.5</v>
-      </c>
-      <c r="F14" s="9">
-        <v>31</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E14" s="14">
         <v>30</v>
+      </c>
+      <c r="F14" s="14">
+        <v>36</v>
+      </c>
+      <c r="G14" s="14">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1437,14 +2148,14 @@
       <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="9">
-        <v>27.5</v>
-      </c>
-      <c r="F15" s="9">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="14">
         <v>30</v>
+      </c>
+      <c r="F15" s="14">
+        <v>36</v>
+      </c>
+      <c r="G15" s="14">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1460,14 +2171,14 @@
       <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="9">
-        <v>34.5</v>
-      </c>
-      <c r="F16" s="9">
-        <v>38</v>
-      </c>
-      <c r="G16" s="9">
-        <v>37</v>
+      <c r="E16" s="14">
+        <v>39</v>
+      </c>
+      <c r="F16" s="14">
+        <v>45</v>
+      </c>
+      <c r="G16" s="14">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1483,14 +2194,14 @@
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="9">
-        <v>38.5</v>
-      </c>
-      <c r="F17" s="9">
-        <v>42</v>
-      </c>
-      <c r="G17" s="9">
-        <v>41</v>
+      <c r="E17" s="14">
+        <v>43</v>
+      </c>
+      <c r="F17" s="14">
+        <v>49</v>
+      </c>
+      <c r="G17" s="14">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1506,14 +2217,14 @@
       <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="9">
-        <v>46.5</v>
-      </c>
-      <c r="F18" s="9">
-        <v>50</v>
-      </c>
-      <c r="G18" s="9">
-        <v>49</v>
+      <c r="E18" s="14">
+        <v>52</v>
+      </c>
+      <c r="F18" s="14">
+        <v>58</v>
+      </c>
+      <c r="G18" s="14">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1529,14 +2240,14 @@
       <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="9">
-        <v>54.5</v>
-      </c>
-      <c r="F19" s="9">
-        <v>58</v>
-      </c>
-      <c r="G19" s="9">
-        <v>57</v>
+      <c r="E19" s="14">
+        <v>63</v>
+      </c>
+      <c r="F19" s="14">
+        <v>69</v>
+      </c>
+      <c r="G19" s="14">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1552,14 +2263,14 @@
       <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="9">
-        <v>58.5</v>
-      </c>
-      <c r="F20" s="9">
-        <v>62</v>
-      </c>
-      <c r="G20" s="9">
-        <v>61</v>
+      <c r="E20" s="14">
+        <v>67</v>
+      </c>
+      <c r="F20" s="14">
+        <v>73</v>
+      </c>
+      <c r="G20" s="14">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1575,14 +2286,14 @@
       <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="9">
-        <v>63.5</v>
-      </c>
-      <c r="F21" s="9">
-        <v>67</v>
-      </c>
-      <c r="G21" s="9">
-        <v>66</v>
+      <c r="E21" s="14">
+        <v>72</v>
+      </c>
+      <c r="F21" s="14">
+        <v>78</v>
+      </c>
+      <c r="G21" s="14">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1598,14 +2309,14 @@
       <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="9">
-        <v>63.5</v>
-      </c>
-      <c r="F22" s="9">
-        <v>67</v>
-      </c>
-      <c r="G22" s="9">
-        <v>66</v>
+      <c r="E22" s="14">
+        <v>72</v>
+      </c>
+      <c r="F22" s="14">
+        <v>78</v>
+      </c>
+      <c r="G22" s="14">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1621,14 +2332,14 @@
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="9">
-        <v>66.5</v>
-      </c>
-      <c r="F23" s="9">
-        <v>70</v>
-      </c>
-      <c r="G23" s="9">
-        <v>69</v>
+      <c r="E23" s="14">
+        <v>74</v>
+      </c>
+      <c r="F23" s="14">
+        <v>80</v>
+      </c>
+      <c r="G23" s="14">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1644,14 +2355,14 @@
       <c r="D24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="9">
-        <v>66.5</v>
-      </c>
-      <c r="F24" s="9">
-        <v>70</v>
-      </c>
-      <c r="G24" s="9">
-        <v>69</v>
+      <c r="E24" s="14">
+        <v>74</v>
+      </c>
+      <c r="F24" s="14">
+        <v>80</v>
+      </c>
+      <c r="G24" s="14">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1667,14 +2378,14 @@
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="9">
-        <v>66.5</v>
-      </c>
-      <c r="F25" s="9">
-        <v>70</v>
-      </c>
-      <c r="G25" s="9">
-        <v>69</v>
+      <c r="E25" s="14">
+        <v>74</v>
+      </c>
+      <c r="F25" s="14">
+        <v>80</v>
+      </c>
+      <c r="G25" s="14">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1690,14 +2401,14 @@
       <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="9">
-        <v>79.5</v>
-      </c>
-      <c r="F26" s="9">
-        <v>83</v>
-      </c>
-      <c r="G26" s="9">
-        <v>82</v>
+      <c r="E26" s="14">
+        <v>89</v>
+      </c>
+      <c r="F26" s="14">
+        <v>95</v>
+      </c>
+      <c r="G26" s="14">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1713,14 +2424,37 @@
       <c r="D27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="9">
-        <v>83.5</v>
-      </c>
-      <c r="F27" s="9">
-        <v>87</v>
-      </c>
-      <c r="G27" s="9">
-        <v>86</v>
+      <c r="E27" s="14">
+        <v>93</v>
+      </c>
+      <c r="F27" s="14">
+        <v>99</v>
+      </c>
+      <c r="G27" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="6">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14">
+        <v>95</v>
+      </c>
+      <c r="F28" s="14">
+        <v>101</v>
+      </c>
+      <c r="G28" s="14">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1729,12 +2463,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C4456A-BBDC-4FAF-8248-C787C433008C}">
-  <dimension ref="A1:G27"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD6F9F-3CCA-4363-AD1B-10496D95E8DB}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1743,9 +2477,10 @@
     <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="5" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="11.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="15"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1761,13 +2496,13 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1784,14 +2519,14 @@
       <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9">
-        <v>22</v>
-      </c>
-      <c r="F2" s="9">
-        <v>28</v>
-      </c>
-      <c r="G2" s="9">
-        <v>25</v>
+      <c r="E2" s="14">
+        <v>32.5</v>
+      </c>
+      <c r="F2" s="14">
+        <v>36</v>
+      </c>
+      <c r="G2" s="14">
+        <v>33.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,14 +2542,14 @@
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9">
-        <v>26</v>
-      </c>
-      <c r="F3" s="9">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9">
-        <v>29</v>
+      <c r="E3" s="14">
+        <v>38</v>
+      </c>
+      <c r="F3" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="G3" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1830,14 +2565,14 @@
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
-        <v>26</v>
-      </c>
-      <c r="F4" s="9">
-        <v>32</v>
-      </c>
-      <c r="G4" s="9">
-        <v>29</v>
+      <c r="E4" s="14">
+        <v>38</v>
+      </c>
+      <c r="F4" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="G4" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1853,14 +2588,14 @@
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9">
-        <v>26</v>
-      </c>
-      <c r="F5" s="9">
-        <v>32</v>
-      </c>
-      <c r="G5" s="9">
-        <v>29</v>
+      <c r="E5" s="14">
+        <v>38</v>
+      </c>
+      <c r="F5" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="G5" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1876,14 +2611,14 @@
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9">
-        <v>26</v>
-      </c>
-      <c r="F6" s="9">
-        <v>32</v>
-      </c>
-      <c r="G6" s="9">
-        <v>29</v>
+      <c r="E6" s="14">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="G6" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1899,14 +2634,14 @@
       <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
-        <v>26</v>
-      </c>
-      <c r="F7" s="9">
-        <v>32</v>
-      </c>
-      <c r="G7" s="9">
-        <v>29</v>
+      <c r="E7" s="14">
+        <v>38</v>
+      </c>
+      <c r="F7" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="G7" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1922,14 +2657,14 @@
       <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9">
-        <v>32</v>
-      </c>
-      <c r="G8" s="9">
-        <v>29</v>
+      <c r="E8" s="14">
+        <v>38</v>
+      </c>
+      <c r="F8" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1945,14 +2680,14 @@
       <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9">
-        <v>32</v>
-      </c>
-      <c r="G9" s="9">
-        <v>29</v>
+      <c r="E9" s="14">
+        <v>38</v>
+      </c>
+      <c r="F9" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1968,14 +2703,14 @@
       <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="9">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9">
-        <v>32</v>
-      </c>
-      <c r="G10" s="9">
-        <v>29</v>
+      <c r="E10" s="14">
+        <v>38</v>
+      </c>
+      <c r="F10" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1991,14 +2726,14 @@
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9">
-        <v>27.3</v>
-      </c>
-      <c r="F11" s="9">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="G11" s="9">
-        <v>30.3</v>
+      <c r="E11" s="14">
+        <v>40</v>
+      </c>
+      <c r="F11" s="14">
+        <v>43.5</v>
+      </c>
+      <c r="G11" s="14">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2014,14 +2749,14 @@
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="9">
-        <v>27.3</v>
-      </c>
-      <c r="F12" s="9">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="G12" s="9">
-        <v>30.3</v>
+      <c r="E12" s="14">
+        <v>40</v>
+      </c>
+      <c r="F12" s="14">
+        <v>43.5</v>
+      </c>
+      <c r="G12" s="14">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2037,14 +2772,14 @@
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="9">
-        <v>30</v>
-      </c>
-      <c r="F13" s="9">
-        <v>36</v>
-      </c>
-      <c r="G13" s="9">
-        <v>33</v>
+      <c r="E13" s="14">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14">
+        <v>47.5</v>
+      </c>
+      <c r="G13" s="14">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2060,14 +2795,14 @@
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="9">
-        <v>30</v>
-      </c>
-      <c r="F14" s="9">
-        <v>36</v>
-      </c>
-      <c r="G14" s="9">
-        <v>33</v>
+      <c r="E14" s="14">
+        <v>44</v>
+      </c>
+      <c r="F14" s="14">
+        <v>47.5</v>
+      </c>
+      <c r="G14" s="14">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2083,14 +2818,14 @@
       <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="9">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9">
-        <v>36</v>
-      </c>
-      <c r="G15" s="9">
-        <v>33</v>
+      <c r="E15" s="14">
+        <v>44</v>
+      </c>
+      <c r="F15" s="14">
+        <v>47.5</v>
+      </c>
+      <c r="G15" s="14">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2106,14 +2841,14 @@
       <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="9">
-        <v>39</v>
-      </c>
-      <c r="F16" s="9">
-        <v>45</v>
-      </c>
-      <c r="G16" s="9">
-        <v>42</v>
+      <c r="E16" s="14">
+        <v>54</v>
+      </c>
+      <c r="F16" s="14">
+        <v>57.5</v>
+      </c>
+      <c r="G16" s="14">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2129,14 +2864,14 @@
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="9">
-        <v>43</v>
-      </c>
-      <c r="F17" s="9">
-        <v>49</v>
-      </c>
-      <c r="G17" s="9">
-        <v>46</v>
+      <c r="E17" s="14">
+        <v>59</v>
+      </c>
+      <c r="F17" s="14">
+        <v>62.5</v>
+      </c>
+      <c r="G17" s="14">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2152,14 +2887,14 @@
       <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="9">
-        <v>52</v>
-      </c>
-      <c r="F18" s="9">
-        <v>58</v>
-      </c>
-      <c r="G18" s="9">
-        <v>55</v>
+      <c r="E18" s="14">
+        <v>69</v>
+      </c>
+      <c r="F18" s="14">
+        <v>72.5</v>
+      </c>
+      <c r="G18" s="14">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2175,14 +2910,14 @@
       <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="9">
-        <v>63</v>
-      </c>
-      <c r="F19" s="9">
-        <v>69</v>
-      </c>
-      <c r="G19" s="9">
-        <v>66</v>
+      <c r="E19" s="14">
+        <v>79</v>
+      </c>
+      <c r="F19" s="14">
+        <v>82.5</v>
+      </c>
+      <c r="G19" s="14">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2198,14 +2933,14 @@
       <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="9">
-        <v>67</v>
-      </c>
-      <c r="F20" s="9">
-        <v>73</v>
-      </c>
-      <c r="G20" s="9">
-        <v>70</v>
+      <c r="E20" s="14">
+        <v>87</v>
+      </c>
+      <c r="F20" s="14">
+        <v>90.5</v>
+      </c>
+      <c r="G20" s="14">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2221,14 +2956,14 @@
       <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="9">
-        <v>72</v>
-      </c>
-      <c r="F21" s="9">
-        <v>78</v>
-      </c>
-      <c r="G21" s="9">
-        <v>75</v>
+      <c r="E21" s="14">
+        <v>91</v>
+      </c>
+      <c r="F21" s="14">
+        <v>94.5</v>
+      </c>
+      <c r="G21" s="14">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2244,14 +2979,14 @@
       <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="9">
-        <v>72</v>
-      </c>
-      <c r="F22" s="9">
-        <v>78</v>
-      </c>
-      <c r="G22" s="9">
-        <v>75</v>
+      <c r="E22" s="14">
+        <v>91</v>
+      </c>
+      <c r="F22" s="14">
+        <v>94.5</v>
+      </c>
+      <c r="G22" s="14">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2267,14 +3002,14 @@
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="9">
-        <v>74</v>
-      </c>
-      <c r="F23" s="9">
-        <v>80</v>
-      </c>
-      <c r="G23" s="9">
-        <v>77</v>
+      <c r="E23" s="14">
+        <v>94</v>
+      </c>
+      <c r="F23" s="14">
+        <v>97.5</v>
+      </c>
+      <c r="G23" s="14">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2290,14 +3025,14 @@
       <c r="D24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="9">
-        <v>74</v>
-      </c>
-      <c r="F24" s="9">
-        <v>80</v>
-      </c>
-      <c r="G24" s="9">
-        <v>77</v>
+      <c r="E24" s="14">
+        <v>94</v>
+      </c>
+      <c r="F24" s="14">
+        <v>97.5</v>
+      </c>
+      <c r="G24" s="14">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2313,14 +3048,14 @@
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="9">
-        <v>74</v>
-      </c>
-      <c r="F25" s="9">
-        <v>80</v>
-      </c>
-      <c r="G25" s="9">
-        <v>77</v>
+      <c r="E25" s="14">
+        <v>94</v>
+      </c>
+      <c r="F25" s="14">
+        <v>97.5</v>
+      </c>
+      <c r="G25" s="14">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2336,14 +3071,14 @@
       <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="9">
-        <v>89</v>
-      </c>
-      <c r="F26" s="9">
-        <v>95</v>
-      </c>
-      <c r="G26" s="9">
-        <v>92</v>
+      <c r="E26" s="14">
+        <v>109</v>
+      </c>
+      <c r="F26" s="14">
+        <v>112.5</v>
+      </c>
+      <c r="G26" s="14">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2359,660 +3094,37 @@
       <c r="D27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="9">
-        <v>93</v>
-      </c>
-      <c r="F27" s="9">
-        <v>99</v>
-      </c>
-      <c r="G27" s="9">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD6F9F-3CCA-4363-AD1B-10496D95E8DB}">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>45860</v>
-      </c>
-      <c r="B2" s="6">
-        <v>45860</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
-        <v>32.5</v>
-      </c>
-      <c r="F2" s="9">
-        <v>36</v>
-      </c>
-      <c r="G2" s="9">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>45867</v>
-      </c>
-      <c r="B3" s="6">
-        <v>45867</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
-        <v>38</v>
-      </c>
-      <c r="F3" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>45874</v>
-      </c>
-      <c r="B4" s="6">
-        <v>45874</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
-        <v>38</v>
-      </c>
-      <c r="F4" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>45881</v>
-      </c>
-      <c r="B5" s="6">
-        <v>45881</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
-        <v>38</v>
-      </c>
-      <c r="F5" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>45888</v>
-      </c>
-      <c r="B6" s="6">
-        <v>45888</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
-        <v>38</v>
-      </c>
-      <c r="F6" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>45895</v>
-      </c>
-      <c r="B7" s="6">
-        <v>45895</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
-        <v>38</v>
-      </c>
-      <c r="F7" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>45902</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45902</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
-        <v>38</v>
-      </c>
-      <c r="F8" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>45909</v>
-      </c>
-      <c r="B9" s="6">
-        <v>45909</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
-        <v>38</v>
-      </c>
-      <c r="F9" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="G9" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>45916</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45916</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
-        <v>38</v>
-      </c>
-      <c r="F10" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="G10" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>45923</v>
-      </c>
-      <c r="B11" s="6">
-        <v>45923</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
-        <v>40</v>
-      </c>
-      <c r="F11" s="9">
-        <v>43.5</v>
-      </c>
-      <c r="G11" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>45930</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45930</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
-        <v>40</v>
-      </c>
-      <c r="F12" s="9">
-        <v>43.5</v>
-      </c>
-      <c r="G12" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>45944</v>
-      </c>
-      <c r="B13" s="6">
-        <v>45944</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
-        <v>44</v>
-      </c>
-      <c r="F13" s="9">
-        <v>47.5</v>
-      </c>
-      <c r="G13" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>45951</v>
-      </c>
-      <c r="B14" s="6">
-        <v>45951</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
-        <v>44</v>
-      </c>
-      <c r="F14" s="9">
-        <v>47.5</v>
-      </c>
-      <c r="G14" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>45958</v>
-      </c>
-      <c r="B15" s="6">
-        <v>45958</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
-        <v>44</v>
-      </c>
-      <c r="F15" s="9">
-        <v>47.5</v>
-      </c>
-      <c r="G15" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>45965</v>
-      </c>
-      <c r="B16" s="6">
-        <v>45965</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
-        <v>54</v>
-      </c>
-      <c r="F16" s="9">
-        <v>57.5</v>
-      </c>
-      <c r="G16" s="9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>45972</v>
-      </c>
-      <c r="B17" s="6">
-        <v>45972</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
-        <v>59</v>
-      </c>
-      <c r="F17" s="9">
-        <v>62.5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>45979</v>
-      </c>
-      <c r="B18" s="6">
-        <v>45979</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
-        <v>69</v>
-      </c>
-      <c r="F18" s="9">
-        <v>72.5</v>
-      </c>
-      <c r="G18" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>45986</v>
-      </c>
-      <c r="B19" s="6">
-        <v>45986</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
-        <v>79</v>
-      </c>
-      <c r="F19" s="9">
-        <v>82.5</v>
-      </c>
-      <c r="G19" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>45993</v>
-      </c>
-      <c r="B20" s="6">
-        <v>45993</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
-        <v>87</v>
-      </c>
-      <c r="F20" s="9">
-        <v>90.5</v>
-      </c>
-      <c r="G20" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>46000</v>
-      </c>
-      <c r="B21" s="6">
-        <v>46000</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
-        <v>91</v>
-      </c>
-      <c r="F21" s="9">
-        <v>94.5</v>
-      </c>
-      <c r="G21" s="9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>46007</v>
-      </c>
-      <c r="B22" s="6">
-        <v>46007</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
-        <v>91</v>
-      </c>
-      <c r="F22" s="9">
-        <v>94.5</v>
-      </c>
-      <c r="G22" s="9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>46014</v>
-      </c>
-      <c r="B23" s="6">
-        <v>46014</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
-        <v>94</v>
-      </c>
-      <c r="F23" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="G23" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>46021</v>
-      </c>
-      <c r="B24" s="6">
-        <v>46021</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
-        <v>94</v>
-      </c>
-      <c r="F24" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="G24" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>46028</v>
-      </c>
-      <c r="B25" s="6">
-        <v>46028</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
-        <v>94</v>
-      </c>
-      <c r="F25" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="G25" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>46035</v>
-      </c>
-      <c r="B26" s="10">
-        <v>46035</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
-        <v>109</v>
-      </c>
-      <c r="F26" s="9">
-        <v>112.5</v>
-      </c>
-      <c r="G26" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>46042</v>
-      </c>
-      <c r="B27" s="10">
-        <v>46042</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="E27" s="14">
         <v>115</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="14">
         <v>118.5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="14">
         <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="6">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14">
+        <v>119</v>
+      </c>
+      <c r="F28" s="14">
+        <v>122.5</v>
+      </c>
+      <c r="G28" s="14">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
